--- a/classfiers/chain/randomForest/chain-randomForest-results.xlsx
+++ b/classfiers/chain/randomForest/chain-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9746153846153846</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9941775836972344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9956331877729258</v>
+        <v>0.9970833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.8149425287356322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.4833961188450352</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997962154294032</v>
+        <v>0.9943397435897434</v>
       </c>
     </row>
   </sheetData>
